--- a/Datasets/IMCV.xlsx
+++ b/Datasets/IMCV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/Library/CloudStorage/GoogleDrive-davidperez202223@gmail.com/Mi unidad/4th Quarter/INE/Datasets/Datos/David/Nuevos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070F57A-C840-E148-89EF-4B59E85EDBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4404F564-AFA6-6347-AF1B-D354E92868E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" activeTab="2" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
@@ -42,36 +42,6 @@
     <t>CCAA</t>
   </si>
   <si>
-    <t>dim 1</t>
-  </si>
-  <si>
-    <t>dim 2</t>
-  </si>
-  <si>
-    <t>dim 3</t>
-  </si>
-  <si>
-    <t>dim 4</t>
-  </si>
-  <si>
-    <t>dim 5</t>
-  </si>
-  <si>
-    <t>dim 6</t>
-  </si>
-  <si>
-    <t>dim 7</t>
-  </si>
-  <si>
-    <t>dim 8</t>
-  </si>
-  <si>
-    <t>dim 9</t>
-  </si>
-  <si>
-    <t>indice total</t>
-  </si>
-  <si>
     <t>Total nacional</t>
   </si>
   <si>
@@ -368,6 +338,36 @@
   </si>
   <si>
     <t>Referencia temporal</t>
+  </si>
+  <si>
+    <t>indice_total</t>
+  </si>
+  <si>
+    <t>dim1</t>
+  </si>
+  <si>
+    <t>dim2</t>
+  </si>
+  <si>
+    <t>dim3</t>
+  </si>
+  <si>
+    <t>dim4</t>
+  </si>
+  <si>
+    <t>dim5</t>
+  </si>
+  <si>
+    <t>dim6</t>
+  </si>
+  <si>
+    <t>dim7</t>
+  </si>
+  <si>
+    <t>dim8</t>
+  </si>
+  <si>
+    <t>dim9</t>
   </si>
 </sst>
 </file>
@@ -731,6 +731,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -757,9 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1081,93 +1081,93 @@
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1195,39 +1195,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>100.08647341481478</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>97.145603507091693</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>105.17100399160407</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>102.21716117641155</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>101.81923560104842</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>93.724567294805198</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>103.38439237302056</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>103.4881104150476</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>101.618109140077</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>100.28212875738102</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>99.422249903221783</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>97.373527963118633</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>99.774492846736706</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>101.30390923305823</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>97.523273134936048</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>104.90579990757882</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>105.28957348595597</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>105.30792812726793</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>92.317752762789468</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>91.123714274808648</v>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1974,28 +1974,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>101</v>
+        <v>22</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -2003,12 +2003,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -2016,242 +2016,242 @@
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>50</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2281,15 +2281,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B3" s="18">
         <v>0</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B4" s="18">
         <v>0</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B5" s="18">
         <v>0</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B6" s="18">
         <v>1</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B8" s="18">
         <v>0</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B9" s="18">
         <v>0</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B10" s="18">
         <v>0</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B11" s="18">
         <v>1</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B14" s="18">
         <v>0</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B15" s="18">
         <v>0</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B16" s="18">
         <v>0</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B17" s="18">
         <v>0</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B18" s="18">
         <v>0</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B19" s="18">
         <v>0</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B20" s="18">
         <v>0</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B21" s="18">
         <v>0</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B22" s="18">
         <v>0</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B23" s="18">
         <v>0</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B24" s="18">
         <v>0</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B25" s="18">
         <v>0</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B26" s="18">
         <v>0</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B27" s="18">
         <v>1</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B28" s="18">
         <v>0</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B29" s="18">
         <v>1</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B30" s="18">
         <v>0</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B31" s="18">
         <v>0</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B32" s="18">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B33" s="18">
         <v>1</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B34" s="18">
         <v>0</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B35" s="18">
         <v>0</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B36" s="18">
         <v>1</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B37" s="18">
         <v>1</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B38" s="27">
         <v>0</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B39" s="27">
         <v>0</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B40" s="27">
         <v>0</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B41" s="27">
         <v>0</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B42" s="27">
         <v>1</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B43" s="27">
         <v>1</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B44" s="27">
         <v>0</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B45" s="27">
         <v>0</v>

--- a/Datasets/IMCV.xlsx
+++ b/Datasets/IMCV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/Library/CloudStorage/GoogleDrive-davidperez202223@gmail.com/Mi unidad/4th Quarter/INE/Datasets/Datos/David/Nuevos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4404F564-AFA6-6347-AF1B-D354E92868E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55B026-6BA8-9144-818C-1F01C206A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" activeTab="2" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="103">
   <si>
     <t>CCAA</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>dim9</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -510,30 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -549,34 +528,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -653,16 +604,92 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -674,42 +701,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,8 +731,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -740,26 +770,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1080,94 +1116,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED5D3C-25DF-4F0F-9FB8-A45A3A829417}">
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1190,43 +1226,43 @@
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1262,7 +1298,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1298,7 +1334,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1334,7 +1370,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1370,7 +1406,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1406,7 +1442,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1442,7 +1478,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1478,7 +1514,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -1514,7 +1550,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1550,7 +1586,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B11">
@@ -1586,7 +1622,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B12">
@@ -1622,7 +1658,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -1658,7 +1694,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -1694,7 +1730,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15">
@@ -1730,7 +1766,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16">
@@ -1766,7 +1802,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B17">
@@ -1802,7 +1838,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -1838,7 +1874,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B19">
@@ -1874,7 +1910,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B20">
@@ -1910,7 +1946,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B21">
@@ -1955,302 +1991,308 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D32F39-0DA6-4B55-AD6E-BFC4DE865BB0}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="48" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="4"/>
-    <col min="6" max="6" width="26.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="48.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="18.5" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="18.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="40" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="12" t="s">
+      <c r="C2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="F2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="21"/>
+      <c r="H6" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="14" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="23" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="14" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2259,6 +2301,7 @@
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{44FDB455-F82B-40C3-A566-13D401A0D89D}"/>
     <hyperlink ref="H4:H12" r:id="rId2" display="https://www.ine.es/experimental/imcv/experimental_ind_multi_calidad_vida.htm " xr:uid="{8627F0C6-740F-43FA-896E-27A4C68864E3}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{E8459C6F-BBFC-254F-8F2A-9DFE6A9DFE58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2266,376 +2309,384 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140220C2-D072-4C73-A23A-56941A369515}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="27"/>
-    <col min="3" max="16384" width="17.5" style="4"/>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="18"/>
+    <col min="3" max="16384" width="17.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="27">
-        <v>0</v>
+      <c r="B38" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="B40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
+      <c r="B41" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="B42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="B43" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="B44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
+      <c r="B45" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B46" s="18">
         <v>0</v>
       </c>
     </row>
